--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gas6-Axl.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gas6-Axl.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.0177214827022</v>
+        <v>19.23438166666667</v>
       </c>
       <c r="H2">
-        <v>19.0177214827022</v>
+        <v>57.70314500000001</v>
       </c>
       <c r="I2">
-        <v>0.1111230752721802</v>
+        <v>0.1061888747949397</v>
       </c>
       <c r="J2">
-        <v>0.1111230752721802</v>
+        <v>0.1061888747949397</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.82037856335803</v>
+        <v>4.203295</v>
       </c>
       <c r="N2">
-        <v>3.82037856335803</v>
+        <v>12.609885</v>
       </c>
       <c r="O2">
-        <v>0.03099806171511114</v>
+        <v>0.03029823713397533</v>
       </c>
       <c r="P2">
-        <v>0.03099806171511114</v>
+        <v>0.03029823713397533</v>
       </c>
       <c r="Q2">
-        <v>72.65489547642898</v>
+        <v>80.84778028759166</v>
       </c>
       <c r="R2">
-        <v>72.65489547642898</v>
+        <v>727.6300225883251</v>
       </c>
       <c r="S2">
-        <v>0.003444599945259984</v>
+        <v>0.003217335709527099</v>
       </c>
       <c r="T2">
-        <v>0.003444599945259984</v>
+        <v>0.003217335709527098</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.0177214827022</v>
+        <v>19.23438166666667</v>
       </c>
       <c r="H3">
-        <v>19.0177214827022</v>
+        <v>57.70314500000001</v>
       </c>
       <c r="I3">
-        <v>0.1111230752721802</v>
+        <v>0.1061888747949397</v>
       </c>
       <c r="J3">
-        <v>0.1111230752721802</v>
+        <v>0.1061888747949397</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>63.6653629877145</v>
+        <v>63.83795266666667</v>
       </c>
       <c r="N3">
-        <v>63.6653629877145</v>
+        <v>191.513858</v>
       </c>
       <c r="O3">
-        <v>0.5165725904590619</v>
+        <v>0.4601574307875511</v>
       </c>
       <c r="P3">
-        <v>0.5165725904590619</v>
+        <v>0.4601574307875511</v>
       </c>
       <c r="Q3">
-        <v>1210.770141395492</v>
+        <v>1227.883546409268</v>
       </c>
       <c r="R3">
-        <v>1210.770141395492</v>
+        <v>11050.95191768341</v>
       </c>
       <c r="S3">
-        <v>0.05740313485312747</v>
+        <v>0.04886359980386038</v>
       </c>
       <c r="T3">
-        <v>0.05740313485312747</v>
+        <v>0.04886359980386037</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.0177214827022</v>
+        <v>19.23438166666667</v>
       </c>
       <c r="H4">
-        <v>19.0177214827022</v>
+        <v>57.70314500000001</v>
       </c>
       <c r="I4">
-        <v>0.1111230752721802</v>
+        <v>0.1061888747949397</v>
       </c>
       <c r="J4">
-        <v>0.1111230752721802</v>
+        <v>0.1061888747949397</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.17781945588362</v>
+        <v>8.211444666666667</v>
       </c>
       <c r="N4">
-        <v>7.17781945588362</v>
+        <v>24.634334</v>
       </c>
       <c r="O4">
-        <v>0.05823990653895685</v>
+        <v>0.05918982553524883</v>
       </c>
       <c r="P4">
-        <v>0.05823990653895685</v>
+        <v>0.05918982553524883</v>
       </c>
       <c r="Q4">
-        <v>136.5057712651157</v>
+        <v>157.9420607533811</v>
       </c>
       <c r="R4">
-        <v>136.5057712651157</v>
+        <v>1421.47854678043</v>
       </c>
       <c r="S4">
-        <v>0.006471797518173244</v>
+        <v>0.006285300972896861</v>
       </c>
       <c r="T4">
-        <v>0.006471797518173244</v>
+        <v>0.006285300972896861</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.0177214827022</v>
+        <v>19.23438166666667</v>
       </c>
       <c r="H5">
-        <v>19.0177214827022</v>
+        <v>57.70314500000001</v>
       </c>
       <c r="I5">
-        <v>0.1111230752721802</v>
+        <v>0.1061888747949397</v>
       </c>
       <c r="J5">
-        <v>0.1111230752721802</v>
+        <v>0.1061888747949397</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.1295626860718</v>
+        <v>29.94042966666667</v>
       </c>
       <c r="N5">
-        <v>19.1295626860718</v>
+        <v>89.82128900000001</v>
       </c>
       <c r="O5">
-        <v>0.1552148183463591</v>
+        <v>0.2158169336041788</v>
       </c>
       <c r="P5">
-        <v>0.1552148183463591</v>
+        <v>0.2158169336041788</v>
       </c>
       <c r="Q5">
-        <v>363.8006952496061</v>
+        <v>575.8856514726563</v>
       </c>
       <c r="R5">
-        <v>363.8006952496061</v>
+        <v>5182.970863253906</v>
       </c>
       <c r="S5">
-        <v>0.01724794794246024</v>
+        <v>0.02291735734112195</v>
       </c>
       <c r="T5">
-        <v>0.01724794794246024</v>
+        <v>0.02291735734112195</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.0177214827022</v>
+        <v>19.23438166666667</v>
       </c>
       <c r="H6">
-        <v>19.0177214827022</v>
+        <v>57.70314500000001</v>
       </c>
       <c r="I6">
-        <v>0.1111230752721802</v>
+        <v>0.1061888747949397</v>
       </c>
       <c r="J6">
-        <v>0.1111230752721802</v>
+        <v>0.1061888747949397</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.4526004580291</v>
+        <v>32.53755666666667</v>
       </c>
       <c r="N6">
-        <v>29.4526004580291</v>
+        <v>97.61267000000001</v>
       </c>
       <c r="O6">
-        <v>0.2389746229405111</v>
+        <v>0.2345375729390458</v>
       </c>
       <c r="P6">
-        <v>0.2389746229405111</v>
+        <v>0.2345375729390459</v>
       </c>
       <c r="Q6">
-        <v>560.1213524521047</v>
+        <v>625.8397834274612</v>
       </c>
       <c r="R6">
-        <v>560.1213524521047</v>
+        <v>5632.558050847151</v>
       </c>
       <c r="S6">
-        <v>0.0265555950131593</v>
+        <v>0.02490528096753337</v>
       </c>
       <c r="T6">
-        <v>0.0265555950131593</v>
+        <v>0.02490528096753337</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>100.902968218614</v>
+        <v>101.9328183333333</v>
       </c>
       <c r="H7">
-        <v>100.902968218614</v>
+        <v>305.798455</v>
       </c>
       <c r="I7">
-        <v>0.5895894596385826</v>
+        <v>0.5627491161960234</v>
       </c>
       <c r="J7">
-        <v>0.5895894596385826</v>
+        <v>0.5627491161960234</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.82037856335803</v>
+        <v>4.203295</v>
       </c>
       <c r="N7">
-        <v>3.82037856335803</v>
+        <v>12.609885</v>
       </c>
       <c r="O7">
-        <v>0.03099806171511114</v>
+        <v>0.03029823713397533</v>
       </c>
       <c r="P7">
-        <v>0.03099806171511114</v>
+        <v>0.03029823713397533</v>
       </c>
       <c r="Q7">
-        <v>385.4875367615895</v>
+        <v>428.4537056364083</v>
       </c>
       <c r="R7">
-        <v>385.4875367615895</v>
+        <v>3856.083350727675</v>
       </c>
       <c r="S7">
-        <v>0.01827613045645581</v>
+        <v>0.01705030616944216</v>
       </c>
       <c r="T7">
-        <v>0.01827613045645581</v>
+        <v>0.01705030616944216</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>100.902968218614</v>
+        <v>101.9328183333333</v>
       </c>
       <c r="H8">
-        <v>100.902968218614</v>
+        <v>305.798455</v>
       </c>
       <c r="I8">
-        <v>0.5895894596385826</v>
+        <v>0.5627491161960234</v>
       </c>
       <c r="J8">
-        <v>0.5895894596385826</v>
+        <v>0.5627491161960234</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>63.6653629877145</v>
+        <v>63.83795266666667</v>
       </c>
       <c r="N8">
-        <v>63.6653629877145</v>
+        <v>191.513858</v>
       </c>
       <c r="O8">
-        <v>0.5165725904590619</v>
+        <v>0.4601574307875511</v>
       </c>
       <c r="P8">
-        <v>0.5165725904590619</v>
+        <v>0.4601574307875511</v>
       </c>
       <c r="Q8">
-        <v>6424.024098175881</v>
+        <v>6507.182431943265</v>
       </c>
       <c r="R8">
-        <v>6424.024098175881</v>
+        <v>58564.64188748939</v>
       </c>
       <c r="S8">
-        <v>0.3045657544728611</v>
+        <v>0.2589531874867272</v>
       </c>
       <c r="T8">
-        <v>0.3045657544728611</v>
+        <v>0.2589531874867272</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>100.902968218614</v>
+        <v>101.9328183333333</v>
       </c>
       <c r="H9">
-        <v>100.902968218614</v>
+        <v>305.798455</v>
       </c>
       <c r="I9">
-        <v>0.5895894596385826</v>
+        <v>0.5627491161960234</v>
       </c>
       <c r="J9">
-        <v>0.5895894596385826</v>
+        <v>0.5627491161960234</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.17781945588362</v>
+        <v>8.211444666666667</v>
       </c>
       <c r="N9">
-        <v>7.17781945588362</v>
+        <v>24.634334</v>
       </c>
       <c r="O9">
-        <v>0.05823990653895685</v>
+        <v>0.05918982553524883</v>
       </c>
       <c r="P9">
-        <v>0.05823990653895685</v>
+        <v>0.05918982553524883</v>
       </c>
       <c r="Q9">
-        <v>724.2632884359742</v>
+        <v>837.0156974615522</v>
       </c>
       <c r="R9">
-        <v>724.2632884359742</v>
+        <v>7533.141277153971</v>
       </c>
       <c r="S9">
-        <v>0.03433763502570512</v>
+        <v>0.03330902200775809</v>
       </c>
       <c r="T9">
-        <v>0.03433763502570512</v>
+        <v>0.0333090220077581</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>100.902968218614</v>
+        <v>101.9328183333333</v>
       </c>
       <c r="H10">
-        <v>100.902968218614</v>
+        <v>305.798455</v>
       </c>
       <c r="I10">
-        <v>0.5895894596385826</v>
+        <v>0.5627491161960234</v>
       </c>
       <c r="J10">
-        <v>0.5895894596385826</v>
+        <v>0.5627491161960234</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.1295626860718</v>
+        <v>29.94042966666667</v>
       </c>
       <c r="N10">
-        <v>19.1295626860718</v>
+        <v>89.82128900000001</v>
       </c>
       <c r="O10">
-        <v>0.1552148183463591</v>
+        <v>0.2158169336041788</v>
       </c>
       <c r="P10">
-        <v>0.1552148183463591</v>
+        <v>0.2158169336041788</v>
       </c>
       <c r="Q10">
-        <v>1930.229655748687</v>
+        <v>3051.912378034277</v>
       </c>
       <c r="R10">
-        <v>1930.229655748687</v>
+        <v>27467.2114023085</v>
       </c>
       <c r="S10">
-        <v>0.09151302087673061</v>
+        <v>0.1214507886458875</v>
       </c>
       <c r="T10">
-        <v>0.09151302087673061</v>
+        <v>0.1214507886458875</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>100.902968218614</v>
+        <v>101.9328183333333</v>
       </c>
       <c r="H11">
-        <v>100.902968218614</v>
+        <v>305.798455</v>
       </c>
       <c r="I11">
-        <v>0.5895894596385826</v>
+        <v>0.5627491161960234</v>
       </c>
       <c r="J11">
-        <v>0.5895894596385826</v>
+        <v>0.5627491161960234</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.4526004580291</v>
+        <v>32.53755666666667</v>
       </c>
       <c r="N11">
-        <v>29.4526004580291</v>
+        <v>97.61267000000001</v>
       </c>
       <c r="O11">
-        <v>0.2389746229405111</v>
+        <v>0.2345375729390458</v>
       </c>
       <c r="P11">
-        <v>0.2389746229405111</v>
+        <v>0.2345375729390459</v>
       </c>
       <c r="Q11">
-        <v>2971.854807972047</v>
+        <v>3316.644852713872</v>
       </c>
       <c r="R11">
-        <v>2971.854807972047</v>
+        <v>29849.80367442485</v>
       </c>
       <c r="S11">
-        <v>0.1408969188068299</v>
+        <v>0.1319858118862084</v>
       </c>
       <c r="T11">
-        <v>0.1408969188068299</v>
+        <v>0.1319858118862084</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>33.9258550683041</v>
+        <v>33.990832</v>
       </c>
       <c r="H12">
-        <v>33.9258550683041</v>
+        <v>101.972496</v>
       </c>
       <c r="I12">
-        <v>0.1982332820394511</v>
+        <v>0.1876560560134372</v>
       </c>
       <c r="J12">
-        <v>0.1982332820394511</v>
+        <v>0.1876560560134371</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.82037856335803</v>
+        <v>4.203295</v>
       </c>
       <c r="N12">
-        <v>3.82037856335803</v>
+        <v>12.609885</v>
       </c>
       <c r="O12">
-        <v>0.03099806171511114</v>
+        <v>0.03029823713397533</v>
       </c>
       <c r="P12">
-        <v>0.03099806171511114</v>
+        <v>0.03029823713397533</v>
       </c>
       <c r="Q12">
-        <v>129.6096094465404</v>
+        <v>142.87349419144</v>
       </c>
       <c r="R12">
-        <v>129.6096094465404</v>
+        <v>1285.86144772296</v>
       </c>
       <c r="S12">
-        <v>0.00614484751064794</v>
+        <v>0.005685647684721677</v>
       </c>
       <c r="T12">
-        <v>0.00614484751064794</v>
+        <v>0.005685647684721675</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>33.9258550683041</v>
+        <v>33.990832</v>
       </c>
       <c r="H13">
-        <v>33.9258550683041</v>
+        <v>101.972496</v>
       </c>
       <c r="I13">
-        <v>0.1982332820394511</v>
+        <v>0.1876560560134372</v>
       </c>
       <c r="J13">
-        <v>0.1982332820394511</v>
+        <v>0.1876560560134371</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.6653629877145</v>
+        <v>63.83795266666667</v>
       </c>
       <c r="N13">
-        <v>63.6653629877145</v>
+        <v>191.513858</v>
       </c>
       <c r="O13">
-        <v>0.5165725904590619</v>
+        <v>0.4601574307875511</v>
       </c>
       <c r="P13">
-        <v>0.5165725904590619</v>
+        <v>0.4601574307875511</v>
       </c>
       <c r="Q13">
-        <v>2159.901877592175</v>
+        <v>2169.905124316619</v>
       </c>
       <c r="R13">
-        <v>2159.901877592175</v>
+        <v>19529.14611884957</v>
       </c>
       <c r="S13">
-        <v>0.1024018800183211</v>
+        <v>0.08635132860686803</v>
       </c>
       <c r="T13">
-        <v>0.1024018800183211</v>
+        <v>0.08635132860686801</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>33.9258550683041</v>
+        <v>33.990832</v>
       </c>
       <c r="H14">
-        <v>33.9258550683041</v>
+        <v>101.972496</v>
       </c>
       <c r="I14">
-        <v>0.1982332820394511</v>
+        <v>0.1876560560134372</v>
       </c>
       <c r="J14">
-        <v>0.1982332820394511</v>
+        <v>0.1876560560134371</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.17781945588362</v>
+        <v>8.211444666666667</v>
       </c>
       <c r="N14">
-        <v>7.17781945588362</v>
+        <v>24.634334</v>
       </c>
       <c r="O14">
-        <v>0.05823990653895685</v>
+        <v>0.05918982553524883</v>
       </c>
       <c r="P14">
-        <v>0.05823990653895685</v>
+        <v>0.05918982553524883</v>
       </c>
       <c r="Q14">
-        <v>243.5136625667611</v>
+        <v>279.1138361419627</v>
       </c>
       <c r="R14">
-        <v>243.5136625667611</v>
+        <v>2512.024525277664</v>
       </c>
       <c r="S14">
-        <v>0.01154508781888831</v>
+        <v>0.01110732921606823</v>
       </c>
       <c r="T14">
-        <v>0.01154508781888831</v>
+        <v>0.01110732921606823</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>33.9258550683041</v>
+        <v>33.990832</v>
       </c>
       <c r="H15">
-        <v>33.9258550683041</v>
+        <v>101.972496</v>
       </c>
       <c r="I15">
-        <v>0.1982332820394511</v>
+        <v>0.1876560560134372</v>
       </c>
       <c r="J15">
-        <v>0.1982332820394511</v>
+        <v>0.1876560560134371</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.1295626860718</v>
+        <v>29.94042966666667</v>
       </c>
       <c r="N15">
-        <v>19.1295626860718</v>
+        <v>89.82128900000001</v>
       </c>
       <c r="O15">
-        <v>0.1552148183463591</v>
+        <v>0.2158169336041788</v>
       </c>
       <c r="P15">
-        <v>0.1552148183463591</v>
+        <v>0.2158169336041788</v>
       </c>
       <c r="Q15">
-        <v>648.98677120771</v>
+        <v>1017.700114807483</v>
       </c>
       <c r="R15">
-        <v>648.98677120771</v>
+        <v>9159.301033267346</v>
       </c>
       <c r="S15">
-        <v>0.03076874286195598</v>
+        <v>0.04049935458107404</v>
       </c>
       <c r="T15">
-        <v>0.03076874286195598</v>
+        <v>0.04049935458107402</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>33.9258550683041</v>
+        <v>33.990832</v>
       </c>
       <c r="H16">
-        <v>33.9258550683041</v>
+        <v>101.972496</v>
       </c>
       <c r="I16">
-        <v>0.1982332820394511</v>
+        <v>0.1876560560134372</v>
       </c>
       <c r="J16">
-        <v>0.1982332820394511</v>
+        <v>0.1876560560134371</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.4526004580291</v>
+        <v>32.53755666666667</v>
       </c>
       <c r="N16">
-        <v>29.4526004580291</v>
+        <v>97.61267000000001</v>
       </c>
       <c r="O16">
-        <v>0.2389746229405111</v>
+        <v>0.2345375729390458</v>
       </c>
       <c r="P16">
-        <v>0.2389746229405111</v>
+        <v>0.2345375729390459</v>
       </c>
       <c r="Q16">
-        <v>999.2046545237622</v>
+        <v>1105.978622347147</v>
       </c>
       <c r="R16">
-        <v>999.2046545237622</v>
+        <v>9953.807601124321</v>
       </c>
       <c r="S16">
-        <v>0.04737272382963783</v>
+        <v>0.0440123959247052</v>
       </c>
       <c r="T16">
-        <v>0.04737272382963783</v>
+        <v>0.04401239592470519</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>16.2502321701197</v>
+        <v>24.872162</v>
       </c>
       <c r="H17">
-        <v>16.2502321701197</v>
+        <v>74.61648600000001</v>
       </c>
       <c r="I17">
-        <v>0.09495226724574136</v>
+        <v>0.1373138446698593</v>
       </c>
       <c r="J17">
-        <v>0.09495226724574136</v>
+        <v>0.1373138446698593</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.82037856335803</v>
+        <v>4.203295</v>
       </c>
       <c r="N17">
-        <v>3.82037856335803</v>
+        <v>12.609885</v>
       </c>
       <c r="O17">
-        <v>0.03099806171511114</v>
+        <v>0.03029823713397533</v>
       </c>
       <c r="P17">
-        <v>0.03099806171511114</v>
+        <v>0.03029823713397533</v>
       </c>
       <c r="Q17">
-        <v>62.08203863231633</v>
+        <v>104.54503417379</v>
       </c>
       <c r="R17">
-        <v>62.08203863231633</v>
+        <v>940.9053075641101</v>
       </c>
       <c r="S17">
-        <v>0.002943336240073217</v>
+        <v>0.004160367427585253</v>
       </c>
       <c r="T17">
-        <v>0.002943336240073217</v>
+        <v>0.004160367427585252</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>16.2502321701197</v>
+        <v>24.872162</v>
       </c>
       <c r="H18">
-        <v>16.2502321701197</v>
+        <v>74.61648600000001</v>
       </c>
       <c r="I18">
-        <v>0.09495226724574136</v>
+        <v>0.1373138446698593</v>
       </c>
       <c r="J18">
-        <v>0.09495226724574136</v>
+        <v>0.1373138446698593</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>63.6653629877145</v>
+        <v>63.83795266666667</v>
       </c>
       <c r="N18">
-        <v>63.6653629877145</v>
+        <v>191.513858</v>
       </c>
       <c r="O18">
-        <v>0.5165725904590619</v>
+        <v>0.4601574307875511</v>
       </c>
       <c r="P18">
-        <v>0.5165725904590619</v>
+        <v>0.4601574307875511</v>
       </c>
       <c r="Q18">
-        <v>1034.576929745306</v>
+        <v>1587.787900473666</v>
       </c>
       <c r="R18">
-        <v>1034.576929745306</v>
+        <v>14290.09110426299</v>
       </c>
       <c r="S18">
-        <v>0.04904973866109375</v>
+        <v>0.06318598597484333</v>
       </c>
       <c r="T18">
-        <v>0.04904973866109375</v>
+        <v>0.06318598597484332</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>16.2502321701197</v>
+        <v>24.872162</v>
       </c>
       <c r="H19">
-        <v>16.2502321701197</v>
+        <v>74.61648600000001</v>
       </c>
       <c r="I19">
-        <v>0.09495226724574136</v>
+        <v>0.1373138446698593</v>
       </c>
       <c r="J19">
-        <v>0.09495226724574136</v>
+        <v>0.1373138446698593</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.17781945588362</v>
+        <v>8.211444666666667</v>
       </c>
       <c r="N19">
-        <v>7.17781945588362</v>
+        <v>24.634334</v>
       </c>
       <c r="O19">
-        <v>0.05823990653895685</v>
+        <v>0.05918982553524883</v>
       </c>
       <c r="P19">
-        <v>0.05823990653895685</v>
+        <v>0.05918982553524883</v>
       </c>
       <c r="Q19">
-        <v>116.6412326333111</v>
+        <v>204.2363820033694</v>
       </c>
       <c r="R19">
-        <v>116.6412326333111</v>
+        <v>1838.127438030324</v>
       </c>
       <c r="S19">
-        <v>0.005530011170054031</v>
+        <v>0.008127582509583231</v>
       </c>
       <c r="T19">
-        <v>0.005530011170054031</v>
+        <v>0.008127582509583229</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.2502321701197</v>
+        <v>24.872162</v>
       </c>
       <c r="H20">
-        <v>16.2502321701197</v>
+        <v>74.61648600000001</v>
       </c>
       <c r="I20">
-        <v>0.09495226724574136</v>
+        <v>0.1373138446698593</v>
       </c>
       <c r="J20">
-        <v>0.09495226724574136</v>
+        <v>0.1373138446698593</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.1295626860718</v>
+        <v>29.94042966666667</v>
       </c>
       <c r="N20">
-        <v>19.1295626860718</v>
+        <v>89.82128900000001</v>
       </c>
       <c r="O20">
-        <v>0.1552148183463591</v>
+        <v>0.2158169336041788</v>
       </c>
       <c r="P20">
-        <v>0.1552148183463591</v>
+        <v>0.2158169336041788</v>
       </c>
       <c r="Q20">
-        <v>310.8598349615253</v>
+        <v>744.6832170189396</v>
       </c>
       <c r="R20">
-        <v>310.8598349615253</v>
+        <v>6702.148953170456</v>
       </c>
       <c r="S20">
-        <v>0.01473799891212269</v>
+        <v>0.02963465289804956</v>
       </c>
       <c r="T20">
-        <v>0.01473799891212269</v>
+        <v>0.02963465289804955</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.2502321701197</v>
+        <v>24.872162</v>
       </c>
       <c r="H21">
-        <v>16.2502321701197</v>
+        <v>74.61648600000001</v>
       </c>
       <c r="I21">
-        <v>0.09495226724574136</v>
+        <v>0.1373138446698593</v>
       </c>
       <c r="J21">
-        <v>0.09495226724574136</v>
+        <v>0.1373138446698593</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>29.4526004580291</v>
+        <v>32.53755666666667</v>
       </c>
       <c r="N21">
-        <v>29.4526004580291</v>
+        <v>97.61267000000001</v>
       </c>
       <c r="O21">
-        <v>0.2389746229405111</v>
+        <v>0.2345375729390458</v>
       </c>
       <c r="P21">
-        <v>0.2389746229405111</v>
+        <v>0.2345375729390459</v>
       </c>
       <c r="Q21">
-        <v>478.6115954567466</v>
+        <v>809.2793804975134</v>
       </c>
       <c r="R21">
-        <v>478.6115954567466</v>
+        <v>7283.514424477621</v>
       </c>
       <c r="S21">
-        <v>0.02269118226239768</v>
+        <v>0.03220525585979794</v>
       </c>
       <c r="T21">
-        <v>0.02269118226239768</v>
+        <v>0.03220525585979794</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.04428837114151</v>
+        <v>1.103486</v>
       </c>
       <c r="H22">
-        <v>1.04428837114151</v>
+        <v>3.310458</v>
       </c>
       <c r="I22">
-        <v>0.006101915804044677</v>
+        <v>0.006092108325740414</v>
       </c>
       <c r="J22">
-        <v>0.006101915804044677</v>
+        <v>0.006092108325740414</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.82037856335803</v>
+        <v>4.203295</v>
       </c>
       <c r="N22">
-        <v>3.82037856335803</v>
+        <v>12.609885</v>
       </c>
       <c r="O22">
-        <v>0.03099806171511114</v>
+        <v>0.03029823713397533</v>
       </c>
       <c r="P22">
-        <v>0.03099806171511114</v>
+        <v>0.03029823713397533</v>
       </c>
       <c r="Q22">
-        <v>3.989576907073099</v>
+        <v>4.63827718637</v>
       </c>
       <c r="R22">
-        <v>3.989576907073099</v>
+        <v>41.74449467733</v>
       </c>
       <c r="S22">
-        <v>0.0001891475626741889</v>
+        <v>0.0001845801426991485</v>
       </c>
       <c r="T22">
-        <v>0.0001891475626741889</v>
+        <v>0.0001845801426991485</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.04428837114151</v>
+        <v>1.103486</v>
       </c>
       <c r="H23">
-        <v>1.04428837114151</v>
+        <v>3.310458</v>
       </c>
       <c r="I23">
-        <v>0.006101915804044677</v>
+        <v>0.006092108325740414</v>
       </c>
       <c r="J23">
-        <v>0.006101915804044677</v>
+        <v>0.006092108325740414</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>63.6653629877145</v>
+        <v>63.83795266666667</v>
       </c>
       <c r="N23">
-        <v>63.6653629877145</v>
+        <v>191.513858</v>
       </c>
       <c r="O23">
-        <v>0.5165725904590619</v>
+        <v>0.4601574307875511</v>
       </c>
       <c r="P23">
-        <v>0.5165725904590619</v>
+        <v>0.4601574307875511</v>
       </c>
       <c r="Q23">
-        <v>66.48499821257336</v>
+        <v>70.44428703632933</v>
       </c>
       <c r="R23">
-        <v>66.48499821257336</v>
+        <v>633.998583326964</v>
       </c>
       <c r="S23">
-        <v>0.003152082453658448</v>
+        <v>0.002803328915252159</v>
       </c>
       <c r="T23">
-        <v>0.003152082453658448</v>
+        <v>0.002803328915252158</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.04428837114151</v>
+        <v>1.103486</v>
       </c>
       <c r="H24">
-        <v>1.04428837114151</v>
+        <v>3.310458</v>
       </c>
       <c r="I24">
-        <v>0.006101915804044677</v>
+        <v>0.006092108325740414</v>
       </c>
       <c r="J24">
-        <v>0.006101915804044677</v>
+        <v>0.006092108325740414</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.17781945588362</v>
+        <v>8.211444666666667</v>
       </c>
       <c r="N24">
-        <v>7.17781945588362</v>
+        <v>24.634334</v>
       </c>
       <c r="O24">
-        <v>0.05823990653895685</v>
+        <v>0.05918982553524883</v>
       </c>
       <c r="P24">
-        <v>0.05823990653895685</v>
+        <v>0.05918982553524883</v>
       </c>
       <c r="Q24">
-        <v>7.495713387932546</v>
+        <v>9.061214229441333</v>
       </c>
       <c r="R24">
-        <v>7.495713387932546</v>
+        <v>81.55092806497201</v>
       </c>
       <c r="S24">
-        <v>0.0003553750061361457</v>
+        <v>0.0003605908289424119</v>
       </c>
       <c r="T24">
-        <v>0.0003553750061361457</v>
+        <v>0.0003605908289424119</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.04428837114151</v>
+        <v>1.103486</v>
       </c>
       <c r="H25">
-        <v>1.04428837114151</v>
+        <v>3.310458</v>
       </c>
       <c r="I25">
-        <v>0.006101915804044677</v>
+        <v>0.006092108325740414</v>
       </c>
       <c r="J25">
-        <v>0.006101915804044677</v>
+        <v>0.006092108325740414</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.1295626860718</v>
+        <v>29.94042966666667</v>
       </c>
       <c r="N25">
-        <v>19.1295626860718</v>
+        <v>89.82128900000001</v>
       </c>
       <c r="O25">
-        <v>0.1552148183463591</v>
+        <v>0.2158169336041788</v>
       </c>
       <c r="P25">
-        <v>0.1552148183463591</v>
+        <v>0.2158169336041788</v>
       </c>
       <c r="Q25">
-        <v>19.97677985808733</v>
+        <v>33.03884497115133</v>
       </c>
       <c r="R25">
-        <v>19.97677985808733</v>
+        <v>297.3496047403621</v>
       </c>
       <c r="S25">
-        <v>0.0009471077530895721</v>
+        <v>0.001314780138045784</v>
       </c>
       <c r="T25">
-        <v>0.0009471077530895721</v>
+        <v>0.001314780138045784</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.04428837114151</v>
+        <v>1.103486</v>
       </c>
       <c r="H26">
-        <v>1.04428837114151</v>
+        <v>3.310458</v>
       </c>
       <c r="I26">
-        <v>0.006101915804044677</v>
+        <v>0.006092108325740414</v>
       </c>
       <c r="J26">
-        <v>0.006101915804044677</v>
+        <v>0.006092108325740414</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>29.4526004580291</v>
+        <v>32.53755666666667</v>
       </c>
       <c r="N26">
-        <v>29.4526004580291</v>
+        <v>97.61267000000001</v>
       </c>
       <c r="O26">
-        <v>0.2389746229405111</v>
+        <v>0.2345375729390458</v>
       </c>
       <c r="P26">
-        <v>0.2389746229405111</v>
+        <v>0.2345375729390459</v>
       </c>
       <c r="Q26">
-        <v>30.7570081581969</v>
+        <v>35.90473825587333</v>
       </c>
       <c r="R26">
-        <v>30.7570081581969</v>
+        <v>323.14264430286</v>
       </c>
       <c r="S26">
-        <v>0.001458203028486322</v>
+        <v>0.001428828300800911</v>
       </c>
       <c r="T26">
-        <v>0.001458203028486322</v>
+        <v>0.001428828300800911</v>
       </c>
     </row>
   </sheetData>
